--- a/InductionResults.xlsx
+++ b/InductionResults.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanielsprecher/Documents/REU_GNN/GraphSAGE_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98647352-F920-D140-BBAE-E3A02AA6DB12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B355C10-E6AD-2646-A46A-2305DEA5C371}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25780" windowHeight="15780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25780" windowHeight="15780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cora" sheetId="1" r:id="rId1"/>
     <sheet name="Citeseer" sheetId="2" r:id="rId2"/>
     <sheet name="Toy-PPI" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Induced" sheetId="5" r:id="rId5"/>
+    <sheet name="Ind_10n_4a" sheetId="5" r:id="rId5"/>
+    <sheet name="Ind_10n_2a" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="51">
   <si>
     <t>Pollution Rate:</t>
   </si>
@@ -1543,6 +1544,2654 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cora: 10% node, 2% attribute, BFS Induction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3140000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4710000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0149999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8839999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39018999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F265-B149-9A94-E2ACA7E207AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73133999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99319000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92412000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39230999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F265-B149-9A94-E2ACA7E207AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98667000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75333000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F265-B149-9A94-E2ACA7E207AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84482999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99319000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83247000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93056000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30897000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F265-B149-9A94-E2ACA7E207AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="993497743"/>
+        <c:axId val="1099325743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="993497743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Set (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099325743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1099325743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993497743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Citeseer: 10% node,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2% attribute, BFS Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7750000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.461E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6729999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33889999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-035F-A84F-A384-501C436EABDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83050999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98717999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-035F-A84F-A384-501C436EABDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99333000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85333000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-035F-A84F-A384-501C436EABDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90741000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99663000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90493000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-035F-A84F-A384-501C436EABDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1049888575"/>
+        <c:axId val="1118809327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1049888575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Set (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118809327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1118809327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049888575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cora: 10% node,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 25 attribute, Random Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3140000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.273E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4070000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20721000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33957999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3402-3447-9AEF-37D1E5281B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73133999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3402-3447-9AEF-37D1E5281B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89332999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3402-3447-9AEF-37D1E5281B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84482999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93988000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3402-3447-9AEF-37D1E5281B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1106386719"/>
+        <c:axId val="1106739183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1106386719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Set (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106739183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1106739183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106386719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Citeseer:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 10% node, 2% attribute, Random Induction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7750000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F8D-4B49-82BB-C9EC2FDCF02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83050999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87243000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F8D-4B49-82BB-C9EC2FDCF02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$J$13:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3330000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F8D-4B49-82BB-C9EC2FDCF02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ind_10n_2a!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ind_10n_2a!$K$13:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90741000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75693999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12021999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F8D-4B49-82BB-C9EC2FDCF02D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1061314015"/>
+        <c:axId val="964214655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1061314015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Set (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964214655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964214655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061314015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6138,7 +8787,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$C$4</c:f>
+              <c:f>Ind_10n_4a!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6161,7 +8810,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$5:$B$9</c:f>
+              <c:f>Ind_10n_4a!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6185,7 +8834,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$C$5:$C$9</c:f>
+              <c:f>Ind_10n_4a!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6219,7 +8868,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$D$4</c:f>
+              <c:f>Ind_10n_4a!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6242,7 +8891,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$5:$B$9</c:f>
+              <c:f>Ind_10n_4a!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6266,7 +8915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$D$5:$D$9</c:f>
+              <c:f>Ind_10n_4a!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6300,7 +8949,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$E$4</c:f>
+              <c:f>Ind_10n_4a!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6323,7 +8972,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$5:$B$9</c:f>
+              <c:f>Ind_10n_4a!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6347,7 +8996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$E$5:$E$9</c:f>
+              <c:f>Ind_10n_4a!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6381,7 +9030,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$F$4</c:f>
+              <c:f>Ind_10n_4a!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6404,7 +9053,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$5:$B$9</c:f>
+              <c:f>Ind_10n_4a!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6428,7 +9077,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$F$5:$F$9</c:f>
+              <c:f>Ind_10n_4a!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6800,7 +9449,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$C$14</c:f>
+              <c:f>Ind_10n_4a!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6823,7 +9472,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$15:$B$19</c:f>
+              <c:f>Ind_10n_4a!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6847,7 +9496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$C$15:$C$19</c:f>
+              <c:f>Ind_10n_4a!$C$15:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6881,7 +9530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$D$14</c:f>
+              <c:f>Ind_10n_4a!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6904,7 +9553,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$15:$B$19</c:f>
+              <c:f>Ind_10n_4a!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6928,7 +9577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$D$15:$D$19</c:f>
+              <c:f>Ind_10n_4a!$D$15:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6962,7 +9611,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$E$14</c:f>
+              <c:f>Ind_10n_4a!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6985,7 +9634,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$15:$B$19</c:f>
+              <c:f>Ind_10n_4a!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7009,7 +9658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$E$15:$E$19</c:f>
+              <c:f>Ind_10n_4a!$E$15:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7043,7 +9692,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$F$14</c:f>
+              <c:f>Ind_10n_4a!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7066,7 +9715,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$B$15:$B$19</c:f>
+              <c:f>Ind_10n_4a!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7090,7 +9739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$F$15:$F$19</c:f>
+              <c:f>Ind_10n_4a!$F$15:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7467,7 +10116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$I$4</c:f>
+              <c:f>Ind_10n_4a!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7490,7 +10139,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$5:$H$9</c:f>
+              <c:f>Ind_10n_4a!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7514,7 +10163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$I$5:$I$9</c:f>
+              <c:f>Ind_10n_4a!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7548,7 +10197,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$J$4</c:f>
+              <c:f>Ind_10n_4a!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7571,7 +10220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$5:$H$9</c:f>
+              <c:f>Ind_10n_4a!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7595,7 +10244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$J$5:$J$9</c:f>
+              <c:f>Ind_10n_4a!$J$5:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7629,7 +10278,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$K$4</c:f>
+              <c:f>Ind_10n_4a!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7652,7 +10301,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$5:$H$9</c:f>
+              <c:f>Ind_10n_4a!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7676,7 +10325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$K$5:$K$9</c:f>
+              <c:f>Ind_10n_4a!$K$5:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7710,7 +10359,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$L$4</c:f>
+              <c:f>Ind_10n_4a!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7733,7 +10382,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$5:$H$9</c:f>
+              <c:f>Ind_10n_4a!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7757,7 +10406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$L$5:$L$9</c:f>
+              <c:f>Ind_10n_4a!$L$5:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8129,7 +10778,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$I$14</c:f>
+              <c:f>Ind_10n_4a!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8152,7 +10801,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$15:$H$19</c:f>
+              <c:f>Ind_10n_4a!$H$15:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8176,7 +10825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$I$15:$I$19</c:f>
+              <c:f>Ind_10n_4a!$I$15:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8210,7 +10859,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$J$14</c:f>
+              <c:f>Ind_10n_4a!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8233,7 +10882,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$15:$H$19</c:f>
+              <c:f>Ind_10n_4a!$H$15:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8257,7 +10906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$J$15:$J$19</c:f>
+              <c:f>Ind_10n_4a!$J$15:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8291,7 +10940,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$K$14</c:f>
+              <c:f>Ind_10n_4a!$K$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8314,7 +10963,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$15:$H$19</c:f>
+              <c:f>Ind_10n_4a!$H$15:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8338,7 +10987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$K$15:$K$19</c:f>
+              <c:f>Ind_10n_4a!$K$15:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8372,7 +11021,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Induced!$L$14</c:f>
+              <c:f>Ind_10n_4a!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8395,7 +11044,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Induced!$H$15:$H$19</c:f>
+              <c:f>Ind_10n_4a!$H$15:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8419,7 +11068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Induced!$L$15:$L$19</c:f>
+              <c:f>Ind_10n_4a!$L$15:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8707,6 +11356,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9569,6 +12378,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -13847,15 +18720,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>548408</xdr:colOff>
+      <xdr:colOff>548407</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>106217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>46182</xdr:colOff>
+      <xdr:colOff>215898</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>80819</xdr:rowOff>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13883,15 +18756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>519544</xdr:colOff>
+      <xdr:colOff>519543</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
+      <xdr:colOff>187034</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>150090</xdr:rowOff>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13919,15 +18792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>23089</xdr:colOff>
+      <xdr:colOff>23088</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71582</xdr:rowOff>
+      <xdr:rowOff>71581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
+      <xdr:colOff>521852</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13963,7 +18836,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>484908</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>161635</xdr:rowOff>
+      <xdr:rowOff>92362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13971,6 +18844,155 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AA6C59-EDEB-0C45-B443-C972949E6945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>407458</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>74949</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111604</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82EB504-387A-6A4D-99B5-A006E0FB4C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>111990</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111603</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7015D0-F80B-5049-B3BB-6A4F9D56AEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>473364</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>140855</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B04993-183D-AE4C-A8A9-5E8417D34B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392547</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>60038</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA36992-61AC-8D4B-8FED-B79FCDBEE672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14291,7 +19313,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15221,8 +20243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B398169-9D7C-449D-BFBD-4D15CB26074E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16677,8 +21699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93807FA1-D237-41EB-8373-16DE5D80D5D1}">
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17371,8 +22393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2475F5C-FDAC-934C-B801-E18B8D91852E}">
   <dimension ref="B2:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+    <sheetView topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19025,4 +24047,1663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CFCB81-7D71-CC43-8BA9-5E5B2A6DDEA8}">
+  <dimension ref="A1:K68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="G1" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="68"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8.3140000000000006E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.73133999999999999</v>
+      </c>
+      <c r="D3" s="87">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="G3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.7750000000000003E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.83050999999999997</v>
+      </c>
+      <c r="J3" s="75">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.90741000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="71">
+        <v>1.4710000000000001E-2</v>
+      </c>
+      <c r="C4" s="72">
+        <v>1</v>
+      </c>
+      <c r="D4" s="72">
+        <v>0.98667000000000005</v>
+      </c>
+      <c r="E4" s="70">
+        <v>0.99319000000000002</v>
+      </c>
+      <c r="G4" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="49">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="I4" s="48">
+        <v>1</v>
+      </c>
+      <c r="J4" s="48">
+        <v>1</v>
+      </c>
+      <c r="K4" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="49">
+        <v>9.0149999999999994E-2</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.99319000000000002</v>
+      </c>
+      <c r="D5" s="48">
+        <v>0.75333000000000006</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.83247000000000004</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="49">
+        <v>1.461E-2</v>
+      </c>
+      <c r="I5" s="48">
+        <v>1</v>
+      </c>
+      <c r="J5" s="48">
+        <v>0.99333000000000005</v>
+      </c>
+      <c r="K5" s="60">
+        <v>0.99663000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="49">
+        <v>6.8839999999999998E-2</v>
+      </c>
+      <c r="C6" s="48">
+        <v>0.92412000000000005</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.94667000000000001</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0.93056000000000005</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="49">
+        <v>9.6729999999999997E-2</v>
+      </c>
+      <c r="I6" s="48">
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="J6" s="48">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="K6" s="60">
+        <v>0.90493000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
+      <c r="A7" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.39018999999999998</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.39230999999999999</v>
+      </c>
+      <c r="D7" s="62">
+        <v>0.46</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0.30897000000000002</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" thickBot="1"/>
+    <row r="11" spans="1:11" ht="16" thickBot="1">
+      <c r="A11" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="G11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="68"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" thickBot="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="52">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8.3140000000000006E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.73133999999999999</v>
+      </c>
+      <c r="D13" s="87">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="G13" s="52">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.7750000000000003E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.83050999999999997</v>
+      </c>
+      <c r="J13" s="75">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.90741000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="69">
+        <v>1.273E-2</v>
+      </c>
+      <c r="C14" s="72">
+        <v>1</v>
+      </c>
+      <c r="D14" s="72">
+        <v>1</v>
+      </c>
+      <c r="E14" s="70">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="I14" s="48">
+        <v>1</v>
+      </c>
+      <c r="J14" s="48">
+        <v>1</v>
+      </c>
+      <c r="K14" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="B15" s="49">
+        <v>8.4070000000000006E-2</v>
+      </c>
+      <c r="C15" s="48">
+        <v>1</v>
+      </c>
+      <c r="D15" s="48">
+        <v>0.89332999999999996</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0.93988000000000005</v>
+      </c>
+      <c r="G15" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="49">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I15" s="48">
+        <v>1</v>
+      </c>
+      <c r="J15" s="48">
+        <v>1</v>
+      </c>
+      <c r="K15" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="49">
+        <v>0.20721000000000001</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="D16" s="48">
+        <v>0.30667</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0.31944</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="49">
+        <v>0.11871</v>
+      </c>
+      <c r="I16" s="48">
+        <v>0.87243000000000004</v>
+      </c>
+      <c r="J16" s="48">
+        <v>0.78</v>
+      </c>
+      <c r="K16" s="60">
+        <v>0.75693999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" thickBot="1">
+      <c r="A17" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="B17" s="61">
+        <v>0.33957999999999999</v>
+      </c>
+      <c r="C17" s="62">
+        <v>0</v>
+      </c>
+      <c r="D17" s="62">
+        <v>0</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.2747</v>
+      </c>
+      <c r="I17" s="62">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="J17" s="62">
+        <v>7.3330000000000006E-2</v>
+      </c>
+      <c r="K17" s="63">
+        <v>0.12021999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" thickBot="1"/>
+    <row r="30" spans="1:11" ht="16" thickBot="1">
+      <c r="A30" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="G30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="68"/>
+    </row>
+    <row r="31" spans="1:11" ht="16" thickBot="1">
+      <c r="A31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" thickBot="1">
+      <c r="A32" s="80">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8.3140000000000006E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.73133999999999999</v>
+      </c>
+      <c r="D32" s="87">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="G32" s="80">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5.7750000000000003E-2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.83050999999999997</v>
+      </c>
+      <c r="J32" s="75">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.90741000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="B33" s="82">
+        <v>1.247E-2</v>
+      </c>
+      <c r="C33" s="73">
+        <v>1</v>
+      </c>
+      <c r="D33" s="73">
+        <v>1</v>
+      </c>
+      <c r="E33" s="83">
+        <v>1</v>
+      </c>
+      <c r="G33" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="82">
+        <v>1.91E-3</v>
+      </c>
+      <c r="I33" s="73">
+        <v>1</v>
+      </c>
+      <c r="J33" s="73">
+        <v>1</v>
+      </c>
+      <c r="K33" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="78"/>
+      <c r="B34" s="48">
+        <v>1.8169999999999999E-2</v>
+      </c>
+      <c r="C34" s="48">
+        <v>1</v>
+      </c>
+      <c r="D34" s="48">
+        <v>0.96</v>
+      </c>
+      <c r="E34" s="60">
+        <v>0.97958999999999996</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="48">
+        <v>1.91E-3</v>
+      </c>
+      <c r="I34" s="48">
+        <v>1</v>
+      </c>
+      <c r="J34" s="48">
+        <v>1</v>
+      </c>
+      <c r="K34" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="78"/>
+      <c r="B35" s="48">
+        <v>1.349E-2</v>
+      </c>
+      <c r="C35" s="48">
+        <v>1</v>
+      </c>
+      <c r="D35" s="48">
+        <v>1</v>
+      </c>
+      <c r="E35" s="60">
+        <v>1</v>
+      </c>
+      <c r="G35" s="78"/>
+      <c r="H35" s="48">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I35" s="48">
+        <v>1</v>
+      </c>
+      <c r="J35" s="48">
+        <v>1</v>
+      </c>
+      <c r="K35" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" thickBot="1">
+      <c r="A36" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="84">
+        <f>(B33+B34+B35)/3</f>
+        <v>1.4710000000000001E-2</v>
+      </c>
+      <c r="C36" s="84">
+        <f t="shared" ref="C36:E36" si="0">(C33+C34+C35)/3</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="84">
+        <f t="shared" si="0"/>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="E36" s="85">
+        <f t="shared" si="0"/>
+        <v>0.99319666666666662</v>
+      </c>
+      <c r="G36" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="84">
+        <f>(H33+H34+H35)/3</f>
+        <v>1.8399999999999998E-3</v>
+      </c>
+      <c r="I36" s="84">
+        <f t="shared" ref="I36:K36" si="1">(I33+I34+I35)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="B37" s="75">
+        <v>7.9479999999999995E-2</v>
+      </c>
+      <c r="C37" s="75">
+        <v>1</v>
+      </c>
+      <c r="D37" s="75">
+        <v>0.88</v>
+      </c>
+      <c r="E37" s="76">
+        <v>0.93616999999999995</v>
+      </c>
+      <c r="G37" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="H37" s="75">
+        <v>2.3730000000000001E-2</v>
+      </c>
+      <c r="I37" s="75">
+        <v>1</v>
+      </c>
+      <c r="J37" s="75">
+        <v>1</v>
+      </c>
+      <c r="K37" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="78"/>
+      <c r="B38" s="48">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="C38" s="48">
+        <v>0.97958999999999996</v>
+      </c>
+      <c r="D38" s="48">
+        <v>0.96</v>
+      </c>
+      <c r="E38" s="60">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="48">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="I38" s="48">
+        <v>1</v>
+      </c>
+      <c r="J38" s="48">
+        <v>1</v>
+      </c>
+      <c r="K38" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="78"/>
+      <c r="B39" s="48">
+        <v>0.11869</v>
+      </c>
+      <c r="C39" s="48">
+        <v>1</v>
+      </c>
+      <c r="D39" s="48">
+        <v>0.42</v>
+      </c>
+      <c r="E39" s="60">
+        <v>0.59155000000000002</v>
+      </c>
+      <c r="G39" s="78"/>
+      <c r="H39" s="48">
+        <v>1.141E-2</v>
+      </c>
+      <c r="I39" s="48">
+        <v>1</v>
+      </c>
+      <c r="J39" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="K39" s="60">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" thickBot="1">
+      <c r="A40" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="84">
+        <f>(B37+B38+B39)/3</f>
+        <v>9.0156666666666663E-2</v>
+      </c>
+      <c r="C40" s="84">
+        <f t="shared" ref="C40:E40" si="2">(C37+C38+C39)/3</f>
+        <v>0.99319666666666662</v>
+      </c>
+      <c r="D40" s="84">
+        <f t="shared" si="2"/>
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="E40" s="85">
+        <f t="shared" si="2"/>
+        <v>0.83247333333333329</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="84">
+        <f>(H37+H38+H39)/3</f>
+        <v>1.4613333333333334E-2</v>
+      </c>
+      <c r="I40" s="84">
+        <f t="shared" ref="I40:K40" si="3">(I37+I38+I39)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="84">
+        <f t="shared" si="3"/>
+        <v>0.99333333333333329</v>
+      </c>
+      <c r="K40" s="85">
+        <f t="shared" si="3"/>
+        <v>0.99663333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="B41" s="75">
+        <v>5.9139999999999998E-2</v>
+      </c>
+      <c r="C41" s="75">
+        <v>0.97872000000000003</v>
+      </c>
+      <c r="D41" s="75">
+        <v>0.92</v>
+      </c>
+      <c r="E41" s="76">
+        <v>0.94845000000000002</v>
+      </c>
+      <c r="G41" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="75">
+        <v>0.12184</v>
+      </c>
+      <c r="I41" s="75">
+        <v>1</v>
+      </c>
+      <c r="J41" s="75">
+        <v>0.62</v>
+      </c>
+      <c r="K41" s="76">
+        <v>0.76543000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="78"/>
+      <c r="B42" s="48">
+        <v>5.6520000000000001E-2</v>
+      </c>
+      <c r="C42" s="48">
+        <v>1</v>
+      </c>
+      <c r="D42" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="E42" s="60">
+        <v>0.95833000000000002</v>
+      </c>
+      <c r="G42" s="78"/>
+      <c r="H42" s="48">
+        <v>9.7839999999999996E-2</v>
+      </c>
+      <c r="I42" s="48">
+        <v>1</v>
+      </c>
+      <c r="J42" s="48">
+        <v>0.94</v>
+      </c>
+      <c r="K42" s="60">
+        <v>0.96906999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="78"/>
+      <c r="B43" s="48">
+        <v>9.0870000000000006E-2</v>
+      </c>
+      <c r="C43" s="48">
+        <v>0.79364999999999997</v>
+      </c>
+      <c r="D43" s="48">
+        <v>1</v>
+      </c>
+      <c r="E43" s="60">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="G43" s="78"/>
+      <c r="H43" s="48">
+        <v>7.0510000000000003E-2</v>
+      </c>
+      <c r="I43" s="48">
+        <v>0.96153999999999995</v>
+      </c>
+      <c r="J43" s="48">
+        <v>1</v>
+      </c>
+      <c r="K43" s="60">
+        <v>0.98029999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" thickBot="1">
+      <c r="A44" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="84">
+        <f>(B41+B42+B43)/3</f>
+        <v>6.8843333333333326E-2</v>
+      </c>
+      <c r="C44" s="84">
+        <f t="shared" ref="C44:E44" si="4">(C41+C42+C43)/3</f>
+        <v>0.9241233333333333</v>
+      </c>
+      <c r="D44" s="84">
+        <f t="shared" si="4"/>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="E44" s="85">
+        <f t="shared" si="4"/>
+        <v>0.93055999999999994</v>
+      </c>
+      <c r="G44" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="84">
+        <f>(H41+H42+H43)/3</f>
+        <v>9.6729999999999997E-2</v>
+      </c>
+      <c r="I44" s="84">
+        <f t="shared" ref="I44:K44" si="5">(I41+I42+I43)/3</f>
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="J44" s="84">
+        <f t="shared" si="5"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="K44" s="85">
+        <f t="shared" si="5"/>
+        <v>0.90493333333333348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="B45" s="75">
+        <v>0.34400999999999998</v>
+      </c>
+      <c r="C45" s="75">
+        <v>0</v>
+      </c>
+      <c r="D45" s="75">
+        <v>0</v>
+      </c>
+      <c r="E45" s="76">
+        <v>0</v>
+      </c>
+      <c r="G45" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="75">
+        <v>0.34517999999999999</v>
+      </c>
+      <c r="I45" s="75">
+        <v>0</v>
+      </c>
+      <c r="J45" s="75">
+        <v>0</v>
+      </c>
+      <c r="K45" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="78"/>
+      <c r="B46" s="48">
+        <v>0.12396</v>
+      </c>
+      <c r="C46" s="48">
+        <v>1</v>
+      </c>
+      <c r="D46" s="48">
+        <v>0.46</v>
+      </c>
+      <c r="E46" s="60">
+        <v>0.63014000000000003</v>
+      </c>
+      <c r="G46" s="78"/>
+      <c r="H46" s="48">
+        <v>0.33722000000000002</v>
+      </c>
+      <c r="I46" s="48">
+        <v>0</v>
+      </c>
+      <c r="J46" s="48">
+        <v>0</v>
+      </c>
+      <c r="K46" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="78"/>
+      <c r="B47" s="48">
+        <v>0.70260999999999996</v>
+      </c>
+      <c r="C47" s="48">
+        <v>0.17691999999999999</v>
+      </c>
+      <c r="D47" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="E47" s="60">
+        <v>0.29676999999999998</v>
+      </c>
+      <c r="G47" s="78"/>
+      <c r="H47" s="48">
+        <v>0.33431</v>
+      </c>
+      <c r="I47" s="48">
+        <v>0</v>
+      </c>
+      <c r="J47" s="48">
+        <v>0</v>
+      </c>
+      <c r="K47" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" thickBot="1">
+      <c r="A48" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="84">
+        <f>(B45+B46+B47)/3</f>
+        <v>0.39019333333333334</v>
+      </c>
+      <c r="C48" s="84">
+        <f t="shared" ref="C48:E48" si="6">(C45+C46+C47)/3</f>
+        <v>0.39230666666666664</v>
+      </c>
+      <c r="D48" s="84">
+        <f t="shared" si="6"/>
+        <v>0.46</v>
+      </c>
+      <c r="E48" s="85">
+        <f t="shared" si="6"/>
+        <v>0.30897000000000002</v>
+      </c>
+      <c r="G48" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="84">
+        <f>(H45+H46+H47)/3</f>
+        <v>0.33890333333333333</v>
+      </c>
+      <c r="I48" s="84">
+        <f t="shared" ref="I48:K48" si="7">(I45+I46+I47)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16" thickBot="1"/>
+    <row r="50" spans="1:11" ht="16" thickBot="1">
+      <c r="A50" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="68"/>
+      <c r="G50" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" s="68"/>
+    </row>
+    <row r="51" spans="1:11" ht="16" thickBot="1">
+      <c r="A51" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16" thickBot="1">
+      <c r="A52" s="80">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <v>8.3140000000000006E-2</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.73133999999999999</v>
+      </c>
+      <c r="D52" s="87">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="G52" s="80">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5.7750000000000003E-2</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.83050999999999997</v>
+      </c>
+      <c r="J52" s="75">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.90741000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="B53" s="82">
+        <v>1.257E-2</v>
+      </c>
+      <c r="C53" s="73">
+        <v>1</v>
+      </c>
+      <c r="D53" s="73">
+        <v>1</v>
+      </c>
+      <c r="E53" s="83">
+        <v>1</v>
+      </c>
+      <c r="G53" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="82">
+        <v>1.57E-3</v>
+      </c>
+      <c r="I53" s="73">
+        <v>1</v>
+      </c>
+      <c r="J53" s="73">
+        <v>1</v>
+      </c>
+      <c r="K53" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="78"/>
+      <c r="B54" s="48">
+        <v>1.4919999999999999E-2</v>
+      </c>
+      <c r="C54" s="48">
+        <v>1</v>
+      </c>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+      <c r="E54" s="60">
+        <v>1</v>
+      </c>
+      <c r="G54" s="78"/>
+      <c r="H54" s="48">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="I54" s="48">
+        <v>1</v>
+      </c>
+      <c r="J54" s="48">
+        <v>1</v>
+      </c>
+      <c r="K54" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="78"/>
+      <c r="B55" s="48">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="C55" s="48">
+        <v>1</v>
+      </c>
+      <c r="D55" s="48">
+        <v>1</v>
+      </c>
+      <c r="E55" s="60">
+        <v>1</v>
+      </c>
+      <c r="G55" s="78"/>
+      <c r="H55" s="48">
+        <v>1.47E-3</v>
+      </c>
+      <c r="I55" s="48">
+        <v>1</v>
+      </c>
+      <c r="J55" s="48">
+        <v>1</v>
+      </c>
+      <c r="K55" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16" thickBot="1">
+      <c r="A56" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="84">
+        <f>(B53+B54+B55)/3</f>
+        <v>1.273E-2</v>
+      </c>
+      <c r="C56" s="84">
+        <f t="shared" ref="C56:E56" si="8">(C53+C54+C55)/3</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="84">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="85">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="84">
+        <f>(H53+H54+H55)/3</f>
+        <v>1.6266666666666667E-3</v>
+      </c>
+      <c r="I56" s="84">
+        <f t="shared" ref="I56:K56" si="9">(I53+I54+I55)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="84">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="85">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="B57" s="75">
+        <v>5.534E-2</v>
+      </c>
+      <c r="C57" s="75">
+        <v>1</v>
+      </c>
+      <c r="D57" s="75">
+        <v>1</v>
+      </c>
+      <c r="E57" s="76">
+        <v>1</v>
+      </c>
+      <c r="G57" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="H57" s="75">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I57" s="75">
+        <v>1</v>
+      </c>
+      <c r="J57" s="75">
+        <v>1</v>
+      </c>
+      <c r="K57" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="78"/>
+      <c r="B58" s="48">
+        <v>8.4779999999999994E-2</v>
+      </c>
+      <c r="C58" s="48">
+        <v>1</v>
+      </c>
+      <c r="D58" s="48">
+        <v>0.94</v>
+      </c>
+      <c r="E58" s="60">
+        <v>0.96906999999999999</v>
+      </c>
+      <c r="G58" s="78"/>
+      <c r="H58" s="48">
+        <v>1.512E-2</v>
+      </c>
+      <c r="I58" s="48">
+        <v>1</v>
+      </c>
+      <c r="J58" s="48">
+        <v>1</v>
+      </c>
+      <c r="K58" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="78"/>
+      <c r="B59" s="48">
+        <v>0.11211</v>
+      </c>
+      <c r="C59" s="48">
+        <v>1</v>
+      </c>
+      <c r="D59" s="48">
+        <v>0.74</v>
+      </c>
+      <c r="E59" s="60">
+        <v>0.85057000000000005</v>
+      </c>
+      <c r="G59" s="78"/>
+      <c r="H59" s="48">
+        <v>6.6E-3</v>
+      </c>
+      <c r="I59" s="48">
+        <v>1</v>
+      </c>
+      <c r="J59" s="48">
+        <v>1</v>
+      </c>
+      <c r="K59" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" thickBot="1">
+      <c r="A60" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="84">
+        <f>(B57+B58+B59)/3</f>
+        <v>8.4076666666666675E-2</v>
+      </c>
+      <c r="C60" s="84">
+        <f t="shared" ref="C60:E60" si="10">(C57+C58+C59)/3</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="84">
+        <f t="shared" si="10"/>
+        <v>0.8933333333333332</v>
+      </c>
+      <c r="E60" s="85">
+        <f t="shared" si="10"/>
+        <v>0.93987999999999994</v>
+      </c>
+      <c r="G60" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="84">
+        <f>(H57+H58+H59)/3</f>
+        <v>1.0506666666666666E-2</v>
+      </c>
+      <c r="I60" s="84">
+        <f t="shared" ref="I60:K60" si="11">(I57+I58+I59)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J60" s="84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="85">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="B61" s="75">
+        <v>0.19949</v>
+      </c>
+      <c r="C61" s="75">
+        <v>0</v>
+      </c>
+      <c r="D61" s="75">
+        <v>0</v>
+      </c>
+      <c r="E61" s="76">
+        <v>0</v>
+      </c>
+      <c r="G61" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="H61" s="75">
+        <v>0.13378000000000001</v>
+      </c>
+      <c r="I61" s="75">
+        <v>1</v>
+      </c>
+      <c r="J61" s="75">
+        <v>0.34</v>
+      </c>
+      <c r="K61" s="76">
+        <v>0.50746000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="78"/>
+      <c r="B62" s="48">
+        <v>0.32806000000000002</v>
+      </c>
+      <c r="C62" s="48">
+        <v>0</v>
+      </c>
+      <c r="D62" s="48">
+        <v>0</v>
+      </c>
+      <c r="E62" s="60">
+        <v>0</v>
+      </c>
+      <c r="G62" s="78"/>
+      <c r="H62" s="48">
+        <v>7.9509999999999997E-2</v>
+      </c>
+      <c r="I62" s="48">
+        <v>1</v>
+      </c>
+      <c r="J62" s="48">
+        <v>1</v>
+      </c>
+      <c r="K62" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="78"/>
+      <c r="B63" s="48">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="C63" s="48">
+        <v>1</v>
+      </c>
+      <c r="D63" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="E63" s="60">
+        <v>0.95833000000000002</v>
+      </c>
+      <c r="G63" s="78"/>
+      <c r="H63" s="48">
+        <v>0.14283000000000001</v>
+      </c>
+      <c r="I63" s="48">
+        <v>0.61728000000000005</v>
+      </c>
+      <c r="J63" s="48">
+        <v>1</v>
+      </c>
+      <c r="K63" s="60">
+        <v>0.76336000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" thickBot="1">
+      <c r="A64" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="84">
+        <f>(B61+B62+B63)/3</f>
+        <v>0.20721666666666663</v>
+      </c>
+      <c r="C64" s="84">
+        <f t="shared" ref="C64:E64" si="12">(C61+C62+C63)/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D64" s="84">
+        <f t="shared" si="12"/>
+        <v>0.3066666666666667</v>
+      </c>
+      <c r="E64" s="85">
+        <f t="shared" si="12"/>
+        <v>0.31944333333333336</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="84">
+        <f>(H61+H62+H63)/3</f>
+        <v>0.11870666666666667</v>
+      </c>
+      <c r="I64" s="84">
+        <f t="shared" ref="I64:K64" si="13">(I61+I62+I63)/3</f>
+        <v>0.87242666666666668</v>
+      </c>
+      <c r="J64" s="84">
+        <f t="shared" si="13"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="K64" s="85">
+        <f t="shared" si="13"/>
+        <v>0.75694000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="B65" s="75">
+        <v>0.32994000000000001</v>
+      </c>
+      <c r="C65" s="75">
+        <v>0</v>
+      </c>
+      <c r="D65" s="75">
+        <v>0</v>
+      </c>
+      <c r="E65" s="76">
+        <v>0</v>
+      </c>
+      <c r="G65" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="H65" s="75">
+        <v>0.34677999999999998</v>
+      </c>
+      <c r="I65" s="75">
+        <v>0</v>
+      </c>
+      <c r="J65" s="75">
+        <v>0</v>
+      </c>
+      <c r="K65" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="78"/>
+      <c r="B66" s="48">
+        <v>0.35365000000000002</v>
+      </c>
+      <c r="C66" s="48">
+        <v>0</v>
+      </c>
+      <c r="D66" s="48">
+        <v>0</v>
+      </c>
+      <c r="E66" s="60">
+        <v>0</v>
+      </c>
+      <c r="G66" s="78"/>
+      <c r="H66" s="48">
+        <v>0.14269000000000001</v>
+      </c>
+      <c r="I66" s="48">
+        <v>1</v>
+      </c>
+      <c r="J66" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="K66" s="60">
+        <v>0.36065999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="78"/>
+      <c r="B67" s="48">
+        <v>0.33517000000000002</v>
+      </c>
+      <c r="C67" s="48">
+        <v>0</v>
+      </c>
+      <c r="D67" s="48">
+        <v>0</v>
+      </c>
+      <c r="E67" s="60">
+        <v>0</v>
+      </c>
+      <c r="G67" s="78"/>
+      <c r="H67" s="48">
+        <v>0.33463999999999999</v>
+      </c>
+      <c r="I67" s="48">
+        <v>0</v>
+      </c>
+      <c r="J67" s="48">
+        <v>0</v>
+      </c>
+      <c r="K67" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" thickBot="1">
+      <c r="A68" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="84">
+        <f>(B65+B66+B67)/3</f>
+        <v>0.3395866666666667</v>
+      </c>
+      <c r="C68" s="84">
+        <f t="shared" ref="C68:E68" si="14">(C65+C66+C67)/3</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="84">
+        <f>(H65+H66+H67)/3</f>
+        <v>0.2747033333333333</v>
+      </c>
+      <c r="I68" s="84">
+        <f t="shared" ref="I68:K68" si="15">(I65+I66+I67)/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J68" s="84">
+        <f t="shared" si="15"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="K68" s="84">
+        <f t="shared" si="15"/>
+        <v>0.12021999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/InductionResults.xlsx
+++ b/InductionResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanielsprecher/Documents/REU_GNN/GraphSAGE_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B355C10-E6AD-2646-A46A-2305DEA5C371}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0552820A-2186-BB4E-ADF8-4499DF0A73A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25780" windowHeight="15780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25780" windowHeight="15780" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cora" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Ind_10n_4a" sheetId="5" r:id="rId5"/>
     <sheet name="Ind_10n_2a" sheetId="6" r:id="rId6"/>
+    <sheet name="Isolated_nodes" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="56">
   <si>
     <t>Pollution Rate:</t>
   </si>
@@ -187,12 +188,27 @@
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>Cluster Coef</t>
+  </si>
+  <si>
+    <t>% Iso</t>
+  </si>
+  <si>
+    <t>Node #</t>
+  </si>
+  <si>
+    <t>Iso Node #</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +243,15 @@
       <color theme="0"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +300,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -997,11 +1032,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1126,6 +1252,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21700,7 +21851,7 @@
   <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -24053,7 +24204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CFCB81-7D71-CC43-8BA9-5E5B2A6DDEA8}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
@@ -25706,4 +25857,520 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08638C3-0211-AA47-8C36-DF329B0BD4A7}">
+  <dimension ref="B1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20" customHeight="1" thickBot="1">
+      <c r="B1" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
+    </row>
+    <row r="2" spans="2:12" ht="16" thickBot="1">
+      <c r="B2" s="99"/>
+      <c r="C2" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="109"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="100"/>
+      <c r="C3" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="101">
+        <v>1</v>
+      </c>
+      <c r="C4" s="90">
+        <v>2708</v>
+      </c>
+      <c r="D4" s="48">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48">
+        <f>(D4/C4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0.240673298501937</v>
+      </c>
+      <c r="G4" s="60">
+        <v>1.4399999126941999E-3</v>
+      </c>
+      <c r="H4" s="90">
+        <v>3327</v>
+      </c>
+      <c r="I4" s="48">
+        <v>0</v>
+      </c>
+      <c r="J4" s="48">
+        <f>(I4/H4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
+        <v>0.14147102442629</v>
+      </c>
+      <c r="L4" s="60">
+        <v>8.45141547653711E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="94">
+        <v>2103</v>
+      </c>
+      <c r="D5" s="95">
+        <v>68</v>
+      </c>
+      <c r="E5" s="95">
+        <f t="shared" ref="E5:E8" si="0">(D5/C5)*100</f>
+        <v>3.2334759866856868</v>
+      </c>
+      <c r="F5" s="95">
+        <v>0.21186596543880301</v>
+      </c>
+      <c r="G5" s="96">
+        <v>1.5708608923955701E-3</v>
+      </c>
+      <c r="H5" s="94">
+        <v>2414</v>
+      </c>
+      <c r="I5" s="95">
+        <v>78</v>
+      </c>
+      <c r="J5" s="95">
+        <f t="shared" ref="J5:J8" si="1">(I5/H5)*100</f>
+        <v>3.2311516155758078</v>
+      </c>
+      <c r="K5" s="95">
+        <v>0.13376682054061301</v>
+      </c>
+      <c r="L5" s="96">
+        <v>1.0345096345361999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="90">
+        <v>1802</v>
+      </c>
+      <c r="D6" s="48">
+        <v>130</v>
+      </c>
+      <c r="E6" s="48">
+        <f t="shared" si="0"/>
+        <v>7.2142064372918977</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0.17262624081471201</v>
+      </c>
+      <c r="G6" s="60">
+        <v>1.49423159972854E-3</v>
+      </c>
+      <c r="H6" s="90">
+        <v>1957</v>
+      </c>
+      <c r="I6" s="48">
+        <v>238</v>
+      </c>
+      <c r="J6" s="48">
+        <f t="shared" si="1"/>
+        <v>12.161471640265713</v>
+      </c>
+      <c r="K6" s="48">
+        <v>9.2806723925783693E-2</v>
+      </c>
+      <c r="L6" s="60">
+        <v>9.8644371366799193E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="94">
+        <v>1621</v>
+      </c>
+      <c r="D7" s="95">
+        <v>169</v>
+      </c>
+      <c r="E7" s="95">
+        <f t="shared" si="0"/>
+        <v>10.425663170882171</v>
+      </c>
+      <c r="F7" s="95">
+        <v>0.15591993492812101</v>
+      </c>
+      <c r="G7" s="96">
+        <v>1.5148399479059499E-3</v>
+      </c>
+      <c r="H7" s="94">
+        <v>1683</v>
+      </c>
+      <c r="I7" s="95">
+        <v>372</v>
+      </c>
+      <c r="J7" s="95">
+        <f t="shared" si="1"/>
+        <v>22.103386809269164</v>
+      </c>
+      <c r="K7" s="95">
+        <v>7.0773390470360201E-2</v>
+      </c>
+      <c r="L7" s="96">
+        <v>8.9515141623975605E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16" thickBot="1">
+      <c r="B8" s="103">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="91">
+        <v>1561</v>
+      </c>
+      <c r="D8" s="62">
+        <v>199</v>
+      </c>
+      <c r="E8" s="62">
+        <f t="shared" si="0"/>
+        <v>12.748238308776424</v>
+      </c>
+      <c r="F8" s="62">
+        <v>0.15443717764484199</v>
+      </c>
+      <c r="G8" s="63">
+        <v>1.48573399694475E-3</v>
+      </c>
+      <c r="H8" s="91">
+        <v>1592</v>
+      </c>
+      <c r="I8" s="62">
+        <v>411</v>
+      </c>
+      <c r="J8" s="62">
+        <f t="shared" si="1"/>
+        <v>25.816582914572866</v>
+      </c>
+      <c r="K8" s="62">
+        <v>5.7908092047539203E-2</v>
+      </c>
+      <c r="L8" s="63">
+        <v>8.5910381574749901E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16" thickBot="1"/>
+    <row r="10" spans="2:12" ht="20" thickBot="1">
+      <c r="B10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="2:12" ht="16" thickBot="1">
+      <c r="B11" s="55"/>
+      <c r="C11" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="109"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="110"/>
+      <c r="C12" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="101">
+        <v>1</v>
+      </c>
+      <c r="C13" s="90">
+        <v>2708</v>
+      </c>
+      <c r="D13" s="48">
+        <v>0</v>
+      </c>
+      <c r="E13" s="48">
+        <f>(D13/C13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="48">
+        <v>0.240673298501937</v>
+      </c>
+      <c r="G13" s="60">
+        <v>1.4399999126941999E-3</v>
+      </c>
+      <c r="H13" s="49">
+        <v>3327</v>
+      </c>
+      <c r="I13" s="48">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48">
+        <f>(I13/H13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="48">
+        <v>0.14147102442629</v>
+      </c>
+      <c r="L13" s="60">
+        <v>8.45141547653711E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="94">
+        <v>2104</v>
+      </c>
+      <c r="D14" s="95">
+        <v>121</v>
+      </c>
+      <c r="E14" s="95">
+        <f t="shared" ref="E14:E17" si="2">(D14/C14)*100</f>
+        <v>5.750950570342205</v>
+      </c>
+      <c r="F14" s="95">
+        <v>0.20353721391198901</v>
+      </c>
+      <c r="G14" s="96">
+        <v>1.4116172984817901E-3</v>
+      </c>
+      <c r="H14" s="97">
+        <v>2414</v>
+      </c>
+      <c r="I14" s="95">
+        <v>294</v>
+      </c>
+      <c r="J14" s="95">
+        <f t="shared" ref="J14:J17" si="3">(I14/H14)*100</f>
+        <v>12.178956089478046</v>
+      </c>
+      <c r="K14" s="95">
+        <v>9.67120173417855E-2</v>
+      </c>
+      <c r="L14" s="96">
+        <v>8.57685053790724E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="90">
+        <v>1802</v>
+      </c>
+      <c r="D15" s="48">
+        <v>161</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" si="2"/>
+        <v>8.9345172031076583</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0.184077643918515</v>
+      </c>
+      <c r="G15" s="60">
+        <v>1.4198549209003999E-3</v>
+      </c>
+      <c r="H15" s="49">
+        <v>1957</v>
+      </c>
+      <c r="I15" s="48">
+        <v>381</v>
+      </c>
+      <c r="J15" s="48">
+        <f t="shared" si="3"/>
+        <v>19.468574348492591</v>
+      </c>
+      <c r="K15" s="48">
+        <v>8.2414528442937604E-2</v>
+      </c>
+      <c r="L15" s="60">
+        <v>8.4589638370152504E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="94">
+        <v>1621</v>
+      </c>
+      <c r="D16" s="95">
+        <v>192</v>
+      </c>
+      <c r="E16" s="95">
+        <f t="shared" si="2"/>
+        <v>11.844540407156076</v>
+      </c>
+      <c r="F16" s="95">
+        <v>0.15586622350210699</v>
+      </c>
+      <c r="G16" s="96">
+        <v>1.44934158917296E-3</v>
+      </c>
+      <c r="H16" s="97">
+        <v>1683</v>
+      </c>
+      <c r="I16" s="95">
+        <v>471</v>
+      </c>
+      <c r="J16" s="95">
+        <f t="shared" si="3"/>
+        <v>27.985739750445632</v>
+      </c>
+      <c r="K16" s="95">
+        <v>6.22038423364836E-2</v>
+      </c>
+      <c r="L16" s="96">
+        <v>8.3580436101944101E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16" thickBot="1">
+      <c r="B17" s="103">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="91">
+        <v>1561</v>
+      </c>
+      <c r="D17" s="62">
+        <v>202</v>
+      </c>
+      <c r="E17" s="62">
+        <f t="shared" si="2"/>
+        <v>12.940422805893659</v>
+      </c>
+      <c r="F17" s="62">
+        <v>0.15323216632922801</v>
+      </c>
+      <c r="G17" s="63">
+        <v>1.44795413853709E-3</v>
+      </c>
+      <c r="H17" s="61">
+        <v>1592</v>
+      </c>
+      <c r="I17" s="62">
+        <v>448</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" si="3"/>
+        <v>28.140703517587941</v>
+      </c>
+      <c r="K17" s="62">
+        <v>5.4383932650264297E-2</v>
+      </c>
+      <c r="L17" s="63">
+        <v>8.3462567393851705E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>